--- a/CORTES DE CAJA/2025/12) DICIEMBRE/LISTA DE LAS VENTAS SEMANA 49 DE DICIEMBRE-25.xlsx
+++ b/CORTES DE CAJA/2025/12) DICIEMBRE/LISTA DE LAS VENTAS SEMANA 49 DE DICIEMBRE-25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EABE6F-C760-43A2-86C2-083AE1613B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F53F9D-B275-4445-92C3-D08FA7F70FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,6 +1172,27 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1211,26 +1232,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1240,9 +1243,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1266,10 +1266,74 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1292,18 +1356,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1312,18 +1368,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1332,58 +1380,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1427,14 +1427,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla110" displayName="Tabla110" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="25">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Importa" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Importa" dataDxfId="24">
       <calculatedColumnFormula>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1446,14 +1446,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla111" displayName="Tabla111" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="#" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="#" dataDxfId="23">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Importa" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Importa" dataDxfId="22">
       <calculatedColumnFormula>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1465,14 +1465,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla112" displayName="Tabla112" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#" dataDxfId="21">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Importa" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Importa" dataDxfId="20">
       <calculatedColumnFormula>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1484,14 +1484,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla113" displayName="Tabla113" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="#" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="#" dataDxfId="19">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Importa" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Importa" dataDxfId="18">
       <calculatedColumnFormula>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1503,14 +1503,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla114" displayName="Tabla114" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="#" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="#" dataDxfId="17">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Importa" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Importa" dataDxfId="16">
       <calculatedColumnFormula>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1522,14 +1522,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla115" displayName="Tabla115" ref="C4:H103" totalsRowShown="0">
   <autoFilter ref="C4:H103" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="#" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="#" dataDxfId="15">
       <calculatedColumnFormula>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Cantidad"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Precio"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Descuento"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Importa" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Importa" dataDxfId="14">
       <calculatedColumnFormula>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1836,23 +1836,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -1865,14 +1865,14 @@
         <f>SUM(Tabla1[Importa])</f>
         <v>2650</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -1903,19 +1903,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>22</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -1937,21 +1937,21 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>338.5</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -1973,19 +1973,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>338.5</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -2004,19 +2004,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>115</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -2035,19 +2035,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>12</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -2066,19 +2066,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>4</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -2097,19 +2097,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -2131,19 +2131,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>504</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -2165,19 +2165,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>324</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -2196,19 +2196,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -2227,19 +2227,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -2258,17 +2258,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -2287,17 +2287,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -2316,17 +2316,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2345,17 +2345,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>280</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2374,17 +2374,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>200</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -2406,17 +2406,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>75</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -2438,17 +2438,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>76</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -2470,17 +2470,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>11</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -2503,7 +2503,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -2522,19 +2522,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -2556,17 +2556,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -2585,18 +2585,18 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>65</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="31"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="31" t="s">
+      <c r="P26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -2611,16 +2611,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="23">
+      <c r="N27" s="27"/>
+      <c r="O27" s="30">
         <v>417</v>
       </c>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="27"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -2635,12 +2635,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="37"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -2655,16 +2655,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="23">
+      <c r="N29" s="27"/>
+      <c r="O29" s="30">
         <v>250</v>
       </c>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="27"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="34"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -2679,12 +2679,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G30))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="37"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -2699,12 +2699,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G31))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="27"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -2719,12 +2719,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G32))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="30"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -2739,12 +2739,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G33))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="27"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -2759,12 +2759,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G34))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="30"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="37"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -2779,12 +2779,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G35))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="27"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -2799,12 +2799,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G36))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="30"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="37"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -2819,12 +2819,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G37))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="27"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -2839,12 +2839,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G38))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M38" s="21"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="30"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="37"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -2859,12 +2859,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G39))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="27"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="34"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -2879,12 +2879,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G40))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="30"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="37"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -2899,12 +2899,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G41))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="27"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="34"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -2919,12 +2919,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G42))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="30"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="37"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -2939,12 +2939,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G43))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="27"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="34"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -2959,12 +2959,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G44))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M44" s="21"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="30"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="37"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -2979,12 +2979,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G45))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="27"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="34"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="str">
@@ -2999,12 +2999,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G46))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M46" s="21"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="30"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="37"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="str">
@@ -3019,12 +3019,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G47))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="27"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="34"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="str">
@@ -3039,12 +3039,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G48))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M48" s="21"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="30"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="37"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="str">
@@ -3059,12 +3059,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G49))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="27"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="34"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="str">
@@ -3079,12 +3079,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G50))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M50" s="21"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="30"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="37"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="str">
@@ -3099,12 +3099,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G51))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="34"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="str">
@@ -3119,12 +3119,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G52))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M52" s="21"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="30"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="37"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="str">
@@ -3843,19 +3843,33 @@
   </sheetData>
   <autoFilter ref="B4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="48">
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P41:R42"/>
-    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:R50"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:R46"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:R48"/>
+    <mergeCell ref="P31:R32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="P39:R40"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="M39:N40"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N28"/>
@@ -3864,41 +3878,27 @@
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="P29:R30"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P31:R32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="P37:R38"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:R46"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:R48"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:R50"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P41:R42"/>
+    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3935,23 +3935,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -3964,14 +3964,14 @@
         <f>SUM(Tabla110[Importa])</f>
         <v>1343</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -4002,19 +4002,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>20</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla110[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -4036,21 +4036,21 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>49</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -4069,19 +4069,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -4100,19 +4100,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -4131,19 +4131,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -4162,19 +4162,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>140</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -4196,19 +4196,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -4230,19 +4230,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -4264,19 +4264,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -4295,19 +4295,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>170</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -4329,19 +4329,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -4360,17 +4360,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>67</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -4389,17 +4389,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>92</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -4421,17 +4421,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>50.5</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -4450,17 +4450,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>170</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -4482,17 +4482,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -4514,17 +4514,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -4543,17 +4543,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -4575,17 +4575,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -4611,7 +4611,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -4633,19 +4633,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>16.5</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -4655,17 +4655,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -4681,12 +4681,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -4707,10 +4707,10 @@
       <c r="N27" s="15">
         <v>3464</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -4727,10 +4727,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -4747,10 +4747,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -4767,10 +4767,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -4787,10 +4787,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -4807,10 +4807,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -4827,10 +4827,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -4847,10 +4847,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -4867,10 +4867,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -4887,10 +4887,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -4907,10 +4907,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -4927,10 +4927,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -4947,10 +4947,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -4967,10 +4967,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -4987,10 +4987,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -5007,10 +5007,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -5027,10 +5027,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -5047,10 +5047,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -5880,40 +5880,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5948,23 +5948,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -5977,14 +5977,14 @@
         <f>SUM(Tabla111[Importa])</f>
         <v>2405.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -6015,17 +6015,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>19</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla111[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -6044,21 +6044,21 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>42</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -6080,19 +6080,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C7">
         <f>IF(ISNUMBER(E7), IF(ISNUMBER(C6), C6+1, 1), "")</f>
@@ -6114,19 +6114,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>54</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C68" si="1">IF(ISNUMBER(E8), IF(ISNUMBER(C7), C7+1, 1), "")</f>
@@ -6148,19 +6148,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>14.5</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -6182,19 +6182,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>14.5</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -6216,19 +6216,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -6250,19 +6250,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>387</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -6284,19 +6284,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>162</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -6318,19 +6318,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>198</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -6349,19 +6349,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -6380,17 +6380,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>28</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -6412,17 +6412,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>873</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -6444,17 +6444,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -6476,17 +6476,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -6505,17 +6505,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -6534,17 +6534,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>85</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -6563,17 +6563,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -6592,17 +6592,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>82</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -6625,7 +6625,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
@@ -6635,19 +6635,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
@@ -6657,17 +6657,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
@@ -6683,12 +6683,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -6705,10 +6705,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -6725,10 +6725,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -6745,10 +6745,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -6765,10 +6765,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -6785,10 +6785,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -6805,10 +6805,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -6825,10 +6825,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -6845,10 +6845,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -6865,10 +6865,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -6885,10 +6885,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -6905,10 +6905,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -6925,10 +6925,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -6945,10 +6945,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -6965,10 +6965,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -6985,10 +6985,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -7005,10 +7005,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -7025,10 +7025,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -7045,10 +7045,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -7878,40 +7878,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7947,23 +7947,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -7976,14 +7976,14 @@
         <f>SUM(Tabla112[Importa])</f>
         <v>1658</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -8014,19 +8014,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>15</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla112[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -8045,21 +8045,21 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -8081,19 +8081,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>315</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -8115,19 +8115,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>121</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -8146,19 +8146,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>60</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -8177,19 +8177,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>161</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -8208,19 +8208,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -8239,19 +8239,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>42</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -8273,19 +8273,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>79.5</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -8304,19 +8304,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -8335,19 +8335,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>250</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -8366,17 +8366,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -8395,17 +8395,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -8427,17 +8427,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>266</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -8456,17 +8456,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -8488,17 +8488,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -8508,17 +8508,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -8528,17 +8528,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -8548,17 +8548,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -8572,7 +8572,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -8582,19 +8582,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -8604,17 +8604,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -8630,12 +8630,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -8656,10 +8656,10 @@
       <c r="N27" s="15">
         <v>66</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -8680,10 +8680,10 @@
       <c r="N28" s="15">
         <v>190</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -8704,10 +8704,10 @@
       <c r="N29" s="15">
         <v>1541</v>
       </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -8728,12 +8728,12 @@
       <c r="N30" s="15">
         <v>1797</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -8750,10 +8750,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -8770,10 +8770,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -8790,10 +8790,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -8810,10 +8810,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -8830,10 +8830,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -8850,10 +8850,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -8870,10 +8870,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -8890,10 +8890,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -8910,10 +8910,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -8930,10 +8930,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -8950,10 +8950,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -8970,10 +8970,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -8990,10 +8990,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -9010,10 +9010,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -9843,40 +9843,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9912,23 +9912,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -9941,14 +9941,14 @@
         <f>SUM(Tabla113[Importa])</f>
         <v>2158</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -9979,19 +9979,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>20</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla113[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -10013,21 +10013,21 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -10049,19 +10049,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>26.5</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -10083,19 +10083,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>266</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -10117,19 +10117,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -10151,19 +10151,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -10185,19 +10185,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>29</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -10216,19 +10216,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>5</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -10250,19 +10250,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -10284,19 +10284,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>531</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -10318,19 +10318,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>108</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -10352,17 +10352,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -10384,17 +10384,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25.5</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -10416,17 +10416,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70.5</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -10448,17 +10448,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>56</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -10480,17 +10480,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>113.5</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -10512,17 +10512,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -10541,17 +10541,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -10573,17 +10573,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -10606,7 +10606,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -10625,19 +10625,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>240</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -10647,17 +10647,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -10673,12 +10673,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -10699,12 +10699,12 @@
       <c r="N27" s="15">
         <v>417</v>
       </c>
-      <c r="O27" s="39" t="s">
+      <c r="O27" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -10725,12 +10725,12 @@
       <c r="N28" s="15">
         <v>250</v>
       </c>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -10751,12 +10751,12 @@
       <c r="N29" s="15">
         <v>3464</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -10777,12 +10777,12 @@
       <c r="N30" s="15">
         <v>1797</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -10803,12 +10803,12 @@
       <c r="N31" s="15">
         <v>1500</v>
       </c>
-      <c r="O31" s="39" t="s">
+      <c r="O31" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -10829,12 +10829,12 @@
       <c r="N32" s="15">
         <v>7428</v>
       </c>
-      <c r="O32" s="39" t="s">
+      <c r="O32" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -10851,10 +10851,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -10871,10 +10871,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -10891,10 +10891,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -10911,10 +10911,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -10931,10 +10931,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -10951,10 +10951,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -10971,10 +10971,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -10991,10 +10991,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -11011,10 +11011,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -11031,10 +11031,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -11051,10 +11051,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -11071,10 +11071,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -11904,40 +11904,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11972,23 +11972,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -12001,14 +12001,14 @@
         <f>SUM(Tabla114[Importa])</f>
         <v>2303</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -12039,19 +12039,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>14</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla114[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -12070,21 +12070,21 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>50</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -12103,19 +12103,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -12134,19 +12134,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -12165,19 +12165,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -12196,19 +12196,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -12227,19 +12227,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -12258,19 +12258,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>640</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -12292,19 +12292,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>315</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -12326,19 +12326,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>86.5</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -12357,19 +12357,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>55</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -12391,17 +12391,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -12423,17 +12423,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>97.5</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -12452,17 +12452,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>590</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -12481,17 +12481,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>42</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -12501,17 +12501,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -12521,17 +12521,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -12541,17 +12541,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -12561,17 +12561,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -12585,7 +12585,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -12595,19 +12595,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -12617,17 +12617,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -12643,12 +12643,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -12665,10 +12665,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -12685,10 +12685,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -12705,10 +12705,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -12725,10 +12725,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -12745,10 +12745,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -12765,10 +12765,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -12785,10 +12785,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -12805,10 +12805,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -12825,10 +12825,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -12845,10 +12845,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -12865,10 +12865,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -12885,10 +12885,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -12905,10 +12905,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -12925,10 +12925,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -12945,10 +12945,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -12965,10 +12965,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -12985,10 +12985,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -13005,10 +13005,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -13838,40 +13838,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13906,23 +13906,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -13935,14 +13935,14 @@
         <f>SUM(Tabla115[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -13973,12 +13973,12 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -13993,21 +13993,21 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -14017,19 +14017,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -14039,19 +14039,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -14061,19 +14061,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -14083,19 +14083,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -14105,19 +14105,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -14127,19 +14127,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -14149,19 +14149,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -14171,19 +14171,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -14193,19 +14193,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -14215,17 +14215,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -14235,17 +14235,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -14255,17 +14255,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -14275,17 +14275,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -14295,17 +14295,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -14315,17 +14315,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -14335,17 +14335,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -14355,17 +14355,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -14379,7 +14379,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -14389,19 +14389,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -14411,17 +14411,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>45997.800870601852</v>
+        <v>45999.745597453701</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -14437,12 +14437,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -14459,10 +14459,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -14479,10 +14479,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -14499,10 +14499,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -14519,10 +14519,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -14539,10 +14539,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -14559,10 +14559,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -14579,10 +14579,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -14599,10 +14599,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -14619,10 +14619,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -14639,10 +14639,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -14659,10 +14659,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -14679,10 +14679,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -14699,10 +14699,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -14719,10 +14719,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -14739,10 +14739,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -14759,10 +14759,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -14779,10 +14779,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -14799,10 +14799,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -15632,40 +15632,40 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>C5&gt;0&amp;ISBLANK(B5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>E5&gt;0&amp;ISBLANK(D5)</formula>
     </cfRule>
   </conditionalFormatting>
